--- a/data/excel/20180926 Regional game IMS 2.7.xlsx
+++ b/data/excel/20180926 Regional game IMS 2.7.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sander\.qgis2\python\plugins\PlanningTool\data\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Raphael\.qgis2\python\plugins\PlanningTool\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4944C063-E624-492E-8E6A-11D2E092111C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B190972-7220-4405-BC2B-29597EFDE39B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1320" windowWidth="23880" windowHeight="13560" tabRatio="762" firstSheet="4" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1305" yWindow="1320" windowWidth="23880" windowHeight="13560" tabRatio="762" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BASIS - Financial data" sheetId="21" r:id="rId1"/>
@@ -30,10 +30,15 @@
     <sheet name="Reserve Revenue (NOT USED)" sheetId="15" r:id="rId15"/>
     <sheet name="Housing plans (NO USE)" sheetId="18" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -3215,6 +3220,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3238,10 +3244,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3252,13 +3258,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
-    <cellStyle name="Berekening" xfId="3" builtinId="22"/>
+    <cellStyle name="Calculation" xfId="3" builtinId="22"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
-    <cellStyle name="Procent" xfId="1" builtinId="5"/>
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -4194,8 +4199,8 @@
   </sheetPr>
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4604,8 +4609,8 @@
   </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4778,19 +4783,19 @@
       <c r="A14" s="72" t="s">
         <v>323</v>
       </c>
-      <c r="B14" s="79" t="e">
-        <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4",'BASIS - Accessiblity of plans'!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))*100</f>
-        <v>#DIV/0!</v>
+      <c r="B14" s="79">
+        <f>IFERROR((SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4",'BASIS - Accessiblity of plans'!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))*100,0)</f>
+        <v>0</v>
       </c>
       <c r="C14" s="72"/>
-      <c r="D14" s="72" t="e">
-        <f>(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4",'INPUT - Housing per plan '!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))*100</f>
-        <v>#DIV/0!</v>
+      <c r="D14" s="72">
+        <f>IFERROR((SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4",'INPUT - Housing per plan '!$F$3:$F$21,"1"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))*100,0)</f>
+        <v>0</v>
       </c>
       <c r="E14" s="72"/>
-      <c r="F14" s="72" t="e">
-        <f>(SUMIFS('INPUT - Housing per plan '!$O$3:$O$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))*100</f>
-        <v>#DIV/0!</v>
+      <c r="F14" s="72">
+        <f>IFERROR((SUMIFS('INPUT - Housing per plan '!$O$3:$O$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))/(SUMIFS('INPUT - Housing per plan '!$L$3:$L$21,'INPUT - Housing per plan '!$E$3:$E$21,"p4"))*100,0)</f>
+        <v>0</v>
       </c>
       <c r="G14" s="72"/>
       <c r="H14" s="72"/>
@@ -8915,10 +8920,10 @@
       <c r="N1" t="s">
         <v>36</v>
       </c>
-      <c r="P1" s="83" t="s">
+      <c r="P1" s="84" t="s">
         <v>33</v>
       </c>
-      <c r="Q1" s="84" t="s">
+      <c r="Q1" s="85" t="s">
         <v>34</v>
       </c>
     </row>
@@ -8957,14 +8962,14 @@
       <c r="M2" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="84"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="85"/>
     </row>
     <row r="3" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="85"/>
+      <c r="B3" s="86"/>
       <c r="C3" s="3">
         <v>272107</v>
       </c>
@@ -9009,10 +9014,10 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="83"/>
       <c r="C4">
         <v>4165</v>
       </c>
@@ -9063,10 +9068,10 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+      <c r="A5" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="83"/>
       <c r="C5">
         <v>10014</v>
       </c>
@@ -9117,10 +9122,10 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="83"/>
       <c r="C6">
         <v>1982</v>
       </c>
@@ -9171,10 +9176,10 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="82"/>
+      <c r="A7" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="83"/>
       <c r="C7">
         <v>23728</v>
       </c>
@@ -9582,11 +9587,11 @@
         <v>243</v>
       </c>
       <c r="S1" s="3"/>
-      <c r="V1" s="86" t="s">
+      <c r="V1" s="87" t="s">
         <v>257</v>
       </c>
-      <c r="W1" s="86"/>
-      <c r="X1" s="86"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
       <c r="Z1"/>
       <c r="AC1"/>
     </row>
@@ -11516,10 +11521,10 @@
       <c r="A1" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="88" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="88" t="s">
+      <c r="B1" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="89" t="s">
         <v>343</v>
       </c>
       <c r="D1" s="60" t="s">
@@ -11528,11 +11533,11 @@
       <c r="E1" s="30" t="s">
         <v>189</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="90" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
       <c r="I1" s="27" t="s">
         <v>176</v>
       </c>
@@ -11558,20 +11563,20 @@
       <c r="W1" s="38"/>
       <c r="X1" s="38"/>
       <c r="Y1" s="38"/>
-      <c r="AB1" s="87" t="s">
+      <c r="AB1" s="88" t="s">
         <v>174</v>
       </c>
-      <c r="AC1" s="87"/>
-      <c r="AD1" s="87"/>
-      <c r="AE1" s="87"/>
-      <c r="AF1" s="87"/>
-      <c r="AG1" s="87" t="s">
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88" t="s">
         <v>173</v>
       </c>
-      <c r="AH1" s="87"/>
-      <c r="AI1" s="87"/>
-      <c r="AJ1" s="87"/>
-      <c r="AK1" s="87"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88"/>
       <c r="AL1" s="1" t="s">
         <v>306</v>
       </c>
@@ -11586,8 +11591,8 @@
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
       <c r="D2" s="60"/>
       <c r="E2" s="30"/>
       <c r="F2" s="26" t="s">
@@ -11611,12 +11616,12 @@
       <c r="L2" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="M2" s="87" t="s">
+      <c r="M2" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="N2" s="87"/>
-      <c r="O2" s="87"/>
-      <c r="P2" s="87"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
       <c r="Q2" s="26" t="s">
         <v>229</v>
       </c>
@@ -18142,22 +18147,22 @@
       <c r="B1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89" t="s">
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
       <c r="O1" s="35"/>
       <c r="P1" s="35"/>
       <c r="Q1" s="35"/>
@@ -18301,7 +18306,7 @@
       </c>
       <c r="Z4" s="7" t="e">
         <f>'INPUT - Infra Projects'!I22+'INPUT - Infra Projects'!I23+'INPUT - Infra Projects'!I25+'INPUT - Infra Projects'!I26+'INPUT - Infra Projects'!I27+'INPUT - Infra Projects'!I28+'INPUT - Infra Projects'!#REF!+'INPUT - Infra Projects'!#REF!+'INPUT - Infra Projects'!I35</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA4" s="7" t="e">
         <f t="shared" ref="AA4:AA7" si="0">Y4-Z4</f>
@@ -18429,11 +18434,11 @@
       </c>
       <c r="Z6" s="7" t="e">
         <f>'INPUT - Infra Projects'!I3+'INPUT - Infra Projects'!I9+'INPUT - Infra Projects'!I10+'INPUT - Infra Projects'!I13+'INPUT - Infra Projects'!I14+'INPUT - Infra Projects'!I17+'INPUT - Infra Projects'!I30+'INPUT - Infra Projects'!I31+'INPUT - Infra Projects'!#REF!+'INPUT - Infra Projects'!I36+'INPUT - Infra Projects'!I37</f>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
       <c r="AA6" s="7" t="e">
         <f t="shared" si="0"/>
-        <v>#REF!</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -18514,29 +18519,29 @@
       <c r="A10" t="s">
         <v>197</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="92" t="s">
         <v>217</v>
       </c>
-      <c r="C10" s="90" t="s">
+      <c r="C10" s="92" t="s">
         <v>110</v>
       </c>
       <c r="D10" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="90"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
       <c r="W10" s="3"/>
       <c r="X10" s="3"/>
       <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B11" s="90"/>
-      <c r="C11" s="90"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
       <c r="D11" s="91"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="90"/>
-      <c r="G11" s="90"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
@@ -18565,24 +18570,24 @@
       <c r="Y12" s="3"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="95" t="s">
         <v>384</v>
       </c>
       <c r="B14" t="s">
         <v>390</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="93" t="s">
         <v>385</v>
       </c>
-      <c r="D14" s="93" t="s">
+      <c r="D14" s="94" t="s">
         <v>386</v>
       </c>
-      <c r="E14" s="93"/>
-      <c r="F14" s="93"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="94"/>
-      <c r="C15" s="92"/>
+      <c r="A15" s="95"/>
+      <c r="C15" s="93"/>
       <c r="D15" s="1" t="s">
         <v>387</v>
       </c>
@@ -18703,7 +18708,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="90" t="s">
+      <c r="A27" s="92" t="s">
         <v>198</v>
       </c>
       <c r="B27" s="91" t="s">
@@ -18723,7 +18728,7 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="90"/>
+      <c r="A28" s="92"/>
       <c r="B28" s="91"/>
       <c r="C28" s="3" t="s">
         <v>22</v>
@@ -18733,7 +18738,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="90"/>
+      <c r="A29" s="92"/>
       <c r="B29" s="91"/>
       <c r="C29" t="s">
         <v>23</v>
@@ -18743,7 +18748,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="90"/>
+      <c r="A30" s="92"/>
       <c r="B30" s="91"/>
       <c r="C30" t="s">
         <v>24</v>
@@ -18753,7 +18758,7 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="90"/>
+      <c r="A31" s="92"/>
       <c r="B31" s="91"/>
       <c r="C31" t="s">
         <v>25</v>
@@ -18887,6 +18892,21 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="H1:N1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A26"/>
+    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B20:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B32:B36"/>
     <mergeCell ref="B37:B41"/>
@@ -18895,21 +18915,6 @@
     <mergeCell ref="A32:A36"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="A42:A43"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B26"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="H1:N1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -18923,7 +18928,7 @@
   </sheetPr>
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
@@ -19109,7 +19114,7 @@
       <c r="A10" t="s">
         <v>320</v>
       </c>
-      <c r="B10" s="95">
+      <c r="B10" s="82">
         <v>0</v>
       </c>
       <c r="C10" s="73">
@@ -19120,7 +19125,7 @@
         <f>IF(I10+L10&lt;100,I10+L10,100)</f>
         <v>-25</v>
       </c>
-      <c r="E10" s="95">
+      <c r="E10" s="82">
         <f>J10+M10</f>
         <v>0</v>
       </c>
@@ -19153,7 +19158,7 @@
       <c r="A11" t="s">
         <v>321</v>
       </c>
-      <c r="B11" s="95">
+      <c r="B11" s="82">
         <v>0</v>
       </c>
       <c r="C11" s="73">
@@ -19164,7 +19169,7 @@
         <f t="shared" ref="D11:D16" si="3">IF(I11+L11&lt;100,I11+L11,100)</f>
         <v>-25</v>
       </c>
-      <c r="E11" s="95">
+      <c r="E11" s="82">
         <f t="shared" ref="E11:E13" si="4">J11+M11</f>
         <v>0</v>
       </c>
@@ -19197,7 +19202,7 @@
       <c r="A12" t="s">
         <v>322</v>
       </c>
-      <c r="B12" s="95">
+      <c r="B12" s="82">
         <v>0</v>
       </c>
       <c r="C12" s="73">
@@ -19208,7 +19213,7 @@
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="E12" s="95">
+      <c r="E12" s="82">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -19242,7 +19247,7 @@
       <c r="A13" t="s">
         <v>323</v>
       </c>
-      <c r="B13" s="95">
+      <c r="B13" s="82">
         <v>0</v>
       </c>
       <c r="C13" s="73">
@@ -19253,7 +19258,7 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="E13" s="95">
+      <c r="E13" s="82">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -19287,7 +19292,7 @@
       <c r="A14" t="s">
         <v>324</v>
       </c>
-      <c r="B14" s="95">
+      <c r="B14" s="82">
         <v>0</v>
       </c>
       <c r="C14" s="73">
@@ -19298,7 +19303,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E14" s="95">
+      <c r="E14" s="82">
         <f>J14+M14</f>
         <v>0</v>
       </c>
@@ -19331,10 +19336,10 @@
       <c r="A15" t="s">
         <v>325</v>
       </c>
-      <c r="B15" s="95">
-        <v>0</v>
-      </c>
-      <c r="C15" s="95">
+      <c r="B15" s="82">
+        <v>0</v>
+      </c>
+      <c r="C15" s="82">
         <f>(SUMIFS('INPUT - Infra Projects'!AM3:AM38,'INPUT - Infra Projects'!S3:S38,"1",'INPUT - Infra Projects'!AA3:AA38,"CAR",'INPUT - Infra Projects'!M3:M38,"p6"))/1+(SUMIFS('INPUT - Infra Projects'!AM3:AM38,'INPUT - Infra Projects'!AA3:AA38,"CAR",'INPUT - Infra Projects'!M3:M38,"p6"))*100</f>
         <v>0</v>
       </c>
@@ -19342,7 +19347,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E15" s="95">
+      <c r="E15" s="82">
         <f>(SUMIFS('INPUT - Infra Projects'!$AM$3:$AM$38,'INPUT - Infra Projects'!$S$3:$S$38,"1",'INPUT - Infra Projects'!$AA$3:$AA$38,"BIC",'INPUT - Infra Projects'!$M$3:$M$38,"p6"))/1+(SUMIFS('INPUT - Infra Projects'!$AM$3:$AM$38,'INPUT - Infra Projects'!$AA$3:$AA$38,"BIC",'INPUT - Infra Projects'!$M$3:$M$38,"p6"))*100</f>
         <v>0</v>
       </c>
@@ -19359,10 +19364,10 @@
       <c r="A16" t="s">
         <v>326</v>
       </c>
-      <c r="B16" s="95">
-        <v>0</v>
-      </c>
-      <c r="C16" s="95">
+      <c r="B16" s="82">
+        <v>0</v>
+      </c>
+      <c r="C16" s="82">
         <f>(SUMIFS('INPUT - Infra Projects'!AM3:AM38,'INPUT - Infra Projects'!S3:S38,"1",'INPUT - Infra Projects'!AA3:AA38,"CAR",'INPUT - Infra Projects'!M3:M38,"p7"))/1+(SUMIFS('INPUT - Infra Projects'!AM3:AM38,'INPUT - Infra Projects'!AA3:AA38,"CAR",'INPUT - Infra Projects'!M3:M38,"p7"))*100</f>
         <v>0</v>
       </c>
@@ -19370,7 +19375,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E16" s="95">
+      <c r="E16" s="82">
         <f>(SUMIFS('INPUT - Infra Projects'!$AM$3:$AM$38,'INPUT - Infra Projects'!$S$3:$S$38,"1",'INPUT - Infra Projects'!$AA$3:$AA$38,"BIC",'INPUT - Infra Projects'!$M$3:$M$38,"p7"))/1+(SUMIFS('INPUT - Infra Projects'!$AM$3:$AM$38,'INPUT - Infra Projects'!$AA$3:$AA$38,"BIC",'INPUT - Infra Projects'!$M$3:$M$38,"p7"))*100</f>
         <v>0</v>
       </c>
